--- a/BaseDeDatos/Multiplicativo_values.xlsx
+++ b/BaseDeDatos/Multiplicativo_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,276 +436,4003 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Black</t>
+          <t>RV_Entregas Black</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Cincita</t>
+          <t>FV+F_Entregas Black</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Onix</t>
+          <t>Threeshold_Entregas Black</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Cincita Reemplazo</t>
+          <t>RV_Entregas Cincita</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Pride 2022</t>
+          <t>FV+F_Entregas Cincita</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Mundial</t>
+          <t>Threeshold_Entregas Cincita</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Pride Hologlam</t>
+          <t>RV_Entregas Onix</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Pride Colors</t>
+          <t>FV+F_Entregas Onix</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Cardlaveritas</t>
+          <t>Threeshold_Entregas Onix</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Cardtrinas</t>
+          <t>RV_Entregas Cincita Reemplazo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Cardjolote White</t>
+          <t>FV+F_Entregas Cincita Reemplazo</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Cardjolote Black</t>
+          <t>Threeshold_Entregas Cincita Reemplazo</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Ocean Plastic</t>
+          <t>RV_Entregas Pride 2022</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Entregas PlayCard</t>
+          <t>FV+F_Entregas Pride 2022</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Gotica</t>
+          <t>Threeshold_Entregas Pride 2022</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Pride 2024</t>
+          <t>RV_Entregas Mundial</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Minion Rayo</t>
+          <t>FV+F_Entregas Mundial</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Entregas Minion Mega</t>
+          <t>Threeshold_Entregas Mundial</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Pride Hologlam</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Pride Hologlam</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Pride Hologlam</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Pride Colors</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Pride Colors</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Pride Colors</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Cardlaveritas</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Cardlaveritas</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Cardlaveritas</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Cardtrinas</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Cardtrinas</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Cardtrinas</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Cardjolote White</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Cardjolote White</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Cardjolote White</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Cardjolote Black</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Cardjolote Black</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Cardjolote Black</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Ocean Plastic</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Ocean Plastic</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Ocean Plastic</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas PlayCard</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas PlayCard</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas PlayCard</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Gotica</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Gotica</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Gotica</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Pride 2024</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Pride 2024</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Pride 2024</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Minion Rayo</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Minion Rayo</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Minion Rayo</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Entregas Minion Mega</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Entregas Minion Mega</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Entregas Minion Mega</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>SMAPE</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3315959616126453</v>
+        <v>25834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.625587932551578</v>
+        <v>35934.82440107639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9961215579030441</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6599689823068603</v>
+        <v>2005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.936191327935207</v>
+        <v>980.3794996001404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9189551270463534</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9429084463320443</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9667477571824324</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>0.635135353981505</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9367512581389065</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9512681699496145</v>
+        <v>234.5016336609294</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3260187007043034</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.3527275336512969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.4654037043399473</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0.7434383393778766</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9421248152729887</v>
+        <v>2192</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4734158903672934</v>
+        <v>993.4597720605341</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4859937556822533</v>
+        <v>20</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>15</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3301.393898197886</v>
+        <v>33271</v>
       </c>
       <c r="C3" t="n">
-        <v>52.6717565969822</v>
+        <v>23505.84538405443</v>
       </c>
       <c r="D3" t="n">
-        <v>5.247966694751285</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>36.04759565295692</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
-        <v>1.08531593125083</v>
+        <v>844.9661515411437</v>
       </c>
       <c r="G3" t="n">
-        <v>192.2434731473137</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3392847725919009</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5956118656056512</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>2.160377911076685</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>90.43939581742701</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>148.5830120539222</v>
+        <v>158.0579586197335</v>
       </c>
       <c r="M3" t="n">
-        <v>1458.085466797472</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1013.144169779423</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1384.430755328969</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>295.7118320996119</v>
+        <v>17</v>
       </c>
       <c r="Q3" t="n">
-        <v>3006.832920403172</v>
+        <v>0.01</v>
       </c>
       <c r="R3" t="n">
-        <v>260.3592134974379</v>
+        <v>915.4022650151741</v>
       </c>
       <c r="S3" t="n">
-        <v>221.4618644675527</v>
+        <v>20</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>15</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>MASE</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4770847678351617</v>
+        <v>33543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.966604256043946</v>
+        <v>30199.55120066295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9980569307765598</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7416653354470313</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
-        <v>6.635212249957598</v>
+        <v>584.154536575342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9546422783981683</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9705930885486559</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9830860587114335</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1.449098701707587</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9663188670870557</v>
+        <v>0.01</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9743463621522109</v>
+        <v>95.97041933632005</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7778390337481217</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.180346492060293</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.5464440962882057</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.8435983262544492</v>
+        <v>17</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9664483820037703</v>
+        <v>0.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6183108716371432</v>
+        <v>834.9407847900509</v>
       </c>
       <c r="S4" t="n">
-        <v>0.641777867183575</v>
+        <v>20</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>15</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31594</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30505.40904370657</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>404.6990839798151</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62.16501167198467</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1623</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1773.693130183311</v>
+      </c>
+      <c r="P5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>762.1955634048759</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>15</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29007</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28769.53545579991</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>280.9604434090185</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L6" t="n">
+        <v>42.40591676203116</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2312</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1242.765933357906</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1295</v>
+      </c>
+      <c r="R6" t="n">
+        <v>696.3707718761693</v>
+      </c>
+      <c r="S6" t="n">
+        <v>20</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>15</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16712</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26442.00736400559</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>195.4605919298964</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L7" t="n">
+        <v>30.14994305139449</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1074.355254133398</v>
+      </c>
+      <c r="P7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1797</v>
+      </c>
+      <c r="R7" t="n">
+        <v>642.7379759579358</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1218</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1821.969000559149</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15</v>
+      </c>
+      <c r="W7" t="n">
+        <v>580</v>
+      </c>
+      <c r="X7" t="n">
+        <v>834.1888834034021</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15292.77876605371</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>136.2595749816903</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>122</v>
+      </c>
+      <c r="I8" t="n">
+        <v>464.5628024149459</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22.1581166833677</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O8" t="n">
+        <v>588.6381190110241</v>
+      </c>
+      <c r="P8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>34</v>
+      </c>
+      <c r="R8" t="n">
+        <v>596.5308840558484</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2387</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1279.010071407009</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15</v>
+      </c>
+      <c r="W8" t="n">
+        <v>969</v>
+      </c>
+      <c r="X8" t="n">
+        <v>612.1405864787552</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5684</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5445.323852019076</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" t="n">
+        <v>98.58969566898357</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>529</v>
+      </c>
+      <c r="I9" t="n">
+        <v>320.1210994631572</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.6154842618995</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O9" t="n">
+        <v>323.4001531510211</v>
+      </c>
+      <c r="P9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>546.5750638953625</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2184</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1735.720828472885</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15</v>
+      </c>
+      <c r="W9" t="n">
+        <v>947</v>
+      </c>
+      <c r="X9" t="n">
+        <v>725.5574849320556</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6341</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5194.292954836608</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>69.00930189649213</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>688</v>
+      </c>
+      <c r="I10" t="n">
+        <v>344.9258562453205</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>78</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14.41114857750351</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O10" t="n">
+        <v>178.1614597429725</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R10" t="n">
+        <v>501.0613709007422</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="n">
+        <v>713</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1781.350309541722</v>
+      </c>
+      <c r="V10" t="n">
+        <v>15</v>
+      </c>
+      <c r="W10" t="n">
+        <v>369</v>
+      </c>
+      <c r="X10" t="n">
+        <v>758.5947762082722</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5795.998402306524</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52.41993211901418</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>290</v>
+      </c>
+      <c r="I11" t="n">
+        <v>405.0233609915131</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>121</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.27852317633603</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>108</v>
+      </c>
+      <c r="O11" t="n">
+        <v>98.41473264946492</v>
+      </c>
+      <c r="P11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>418</v>
+      </c>
+      <c r="R11" t="n">
+        <v>459.7027538679409</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="n">
+        <v>422</v>
+      </c>
+      <c r="U11" t="n">
+        <v>993.5582955523507</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15</v>
+      </c>
+      <c r="W11" t="n">
+        <v>366</v>
+      </c>
+      <c r="X11" t="n">
+        <v>478.0337385256516</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2379</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2535.09501751937</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>118</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>732.9407805459256</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3040</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3835.799972914814</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>148</v>
+      </c>
+      <c r="F12" t="n">
+        <v>43.60866754930306</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>307</v>
+      </c>
+      <c r="I12" t="n">
+        <v>331.3584635695205</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>41</v>
+      </c>
+      <c r="L12" t="n">
+        <v>33.64666122102967</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>73.24072428194684</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>472</v>
+      </c>
+      <c r="R12" t="n">
+        <v>424.0279896561353</v>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" t="n">
+        <v>71</v>
+      </c>
+      <c r="U12" t="n">
+        <v>568.1444050850155</v>
+      </c>
+      <c r="V12" t="n">
+        <v>15</v>
+      </c>
+      <c r="W12" t="n">
+        <v>249</v>
+      </c>
+      <c r="X12" t="n">
+        <v>369.5609311526337</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2803</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1901.970650847295</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1249</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>575.1855132448291</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>646</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1326.111218656596</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1491</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3746.174735610361</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3736</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2789.672459104174</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>139</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43.41623692245925</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>188</v>
+      </c>
+      <c r="I13" t="n">
+        <v>290.8994809386701</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44</v>
+      </c>
+      <c r="L13" t="n">
+        <v>34.21538138090328</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>41.0276621481112</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>462</v>
+      </c>
+      <c r="R13" t="n">
+        <v>391.8362825834564</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" t="n">
+        <v>63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>231.7929717268634</v>
+      </c>
+      <c r="V13" t="n">
+        <v>15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>268.7111677126397</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1381</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1860.274061807511</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>620</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>603.5621660978434</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3061</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1090.313057553635</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2848</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>3466.67122496025</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5398</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3422.641760050539</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42.59336644711409</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I14" t="n">
+        <v>232.818478243776</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14</v>
+      </c>
+      <c r="K14" t="n">
+        <v>99</v>
+      </c>
+      <c r="L14" t="n">
+        <v>35.24126717728046</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>73</v>
+      </c>
+      <c r="O14" t="n">
+        <v>24.41713031862458</v>
+      </c>
+      <c r="P14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>471</v>
+      </c>
+      <c r="R14" t="n">
+        <v>362.4975786345166</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="n">
+        <v>34</v>
+      </c>
+      <c r="U14" t="n">
+        <v>113.3728226473516</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X14" t="n">
+        <v>103.6843220991617</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2277</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1248.061420485941</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>653</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>543.3592862406126</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>805</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1170.727971150076</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2882</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>3217.232069961669</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4947.002357135316</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>278</v>
+      </c>
+      <c r="F15" t="n">
+        <v>58.82353959765071</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I15" t="n">
+        <v>144.3394431413814</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>43.83335949129688</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O15" t="n">
+        <v>26.40247163544437</v>
+      </c>
+      <c r="P15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>77</v>
+      </c>
+      <c r="R15" t="n">
+        <v>335.8238146306671</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>57.26712626562461</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>39.85775754981309</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>431</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1412.22751623567</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>267</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>502.1629710349807</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>990.4502953720447</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6176</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2989.054967657441</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1213</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>5214.614947153308</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6073</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4402.312599496403</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>236</v>
+      </c>
+      <c r="F16" t="n">
+        <v>65.68918289943792</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>89.57777802600846</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>97</v>
+      </c>
+      <c r="L16" t="n">
+        <v>48.41775457361978</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14.78910936795043</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>309.6861089067693</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>19.50798211201819</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15</v>
+      </c>
+      <c r="W16" t="n">
+        <v>28</v>
+      </c>
+      <c r="X16" t="n">
+        <v>18.91691580393061</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>235</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>689.470377393629</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>413</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>420.3113962190183</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>772.0023827926002</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2795.363396217874</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>5292</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>4247.682971656083</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1725</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3747.23824841093</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6371</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5577.80316586512</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>67.056916587904</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55.92775996130344</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>56</v>
+      </c>
+      <c r="L17" t="n">
+        <v>55.61613458680569</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8.305884788960196</v>
+      </c>
+      <c r="P17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R17" t="n">
+        <v>285.471869031464</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.201985965604501</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21.62596127136431</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>347.8135411571851</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>377.142162846265</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>606.6819113553163</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>5520</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2594.600967968313</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2385</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>12502.63651521462</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>3907</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2981.552836628741</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7887</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5860.900725772119</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>416</v>
+      </c>
+      <c r="F18" t="n">
+        <v>69.89487193979478</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34.78052496398952</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>51</v>
+      </c>
+      <c r="L18" t="n">
+        <v>56.40798983367319</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.677327654133587</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>263.3413622205357</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.009832054715523</v>
+      </c>
+      <c r="V18" t="n">
+        <v>15</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10.38962620610115</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>127.780223123211</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>292.2681017623445</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>470.8074672766675</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3750</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2430.705718582595</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2631</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>5046.692669536813</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3672.986068889726</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2973.09059032528</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6926</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7256.970580412364</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>320</v>
+      </c>
+      <c r="F19" t="n">
+        <v>85.95701297695352</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21.65187744547532</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>44</v>
+      </c>
+      <c r="L19" t="n">
+        <v>56.26161984292502</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.641333512268494</v>
+      </c>
+      <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>33</v>
+      </c>
+      <c r="R19" t="n">
+        <v>243.1043718280054</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.03386962614192</v>
+      </c>
+      <c r="V19" t="n">
+        <v>15</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.602788805886988</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>46.10276218718557</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>226.6035577283162</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>365.9000077875493</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>172</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2272.153409178183</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>3574</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2485.071965091199</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>734</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3594.256507207318</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2975</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2866.47478349861</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>2330</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>3752.887331438404</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7981</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6387.662858802802</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>228</v>
+      </c>
+      <c r="F20" t="n">
+        <v>89.23339232040721</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.49317963391523</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14</v>
+      </c>
+      <c r="K20" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" t="n">
+        <v>55.02029103136713</v>
+      </c>
+      <c r="M20" t="n">
+        <v>20</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.496062247219081</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>39</v>
+      </c>
+      <c r="R20" t="n">
+        <v>224.7391464934743</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3591383206991354</v>
+      </c>
+      <c r="V20" t="n">
+        <v>15</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.451439070132766</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>16.6706710927998</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>174.936457058905</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>290.8673916366466</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>84</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2109.884561971948</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2996</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3464.874743837902</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>188</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2135.127099527341</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1776</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3092.964542087215</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>3771</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3455.561703140366</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1725</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1725.000211158492</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1267</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1267.000187236519</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9155</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7357.7060964046</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>182</v>
+      </c>
+      <c r="F21" t="n">
+        <v>83.72105101045794</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.41799594364344</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22</v>
+      </c>
+      <c r="L21" t="n">
+        <v>51.86918496444856</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.850231602822477</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>207.950775123023</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.230526147482776</v>
+      </c>
+      <c r="V21" t="n">
+        <v>15</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.849218494173068</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.043094964468168</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>135.6739766561564</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>226.5690338591363</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1960.21139165961</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2066</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2902.015465596275</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>3278</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1001.713965047905</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>1232</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1424.137786344078</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2582</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>4927.251628567595</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1222</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>1222.000504239235</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>918</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>918.0000568436402</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7257</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8523.102049537274</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>251</v>
+      </c>
+      <c r="F22" t="n">
+        <v>78.46249942344173</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.455821651661295</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22</v>
+      </c>
+      <c r="L22" t="n">
+        <v>49.41265011124995</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5495583379585152</v>
+      </c>
+      <c r="P22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>235.4953049038547</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.4387672736759647</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.7521774725462361</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.385171363341492</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>115.7378520475978</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>196.0242365595984</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6157</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2034.192893349532</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2724</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1706.603162303056</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1954</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>2163.824583948304</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>284</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>825.2163870012187</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>573</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3177.032263990054</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>687</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>892.2923923212109</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1123</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>685.6538742791543</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4313</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7947.93247188093</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>102</v>
+      </c>
+      <c r="F23" t="n">
+        <v>63.76184732886568</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.914689910189225</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27</v>
+      </c>
+      <c r="L23" t="n">
+        <v>49.05042211485198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.4153927513340192</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>17</v>
+      </c>
+      <c r="R23" t="n">
+        <v>221.0501804690422</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.3978520534747311</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.6855625969828555</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.916473809786552</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>105.7885343071287</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>175.9253793808287</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3512</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1919.915161302776</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1859</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1310.828800808597</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>531</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>2287.216764151134</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>108</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>542.7359351285343</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>3150.865103539015</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>269</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>656.8893748281838</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>525</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>514.9827572617069</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4427</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7416.757575896049</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>52</v>
+      </c>
+      <c r="F24" t="n">
+        <v>51.90546066680029</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.423662202747213</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27</v>
+      </c>
+      <c r="L24" t="n">
+        <v>48.76255252422947</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3147588312064221</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>207.6224963274595</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.3611055029600247</v>
+      </c>
+      <c r="V24" t="n">
+        <v>15</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.6254270205392646</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.543051997608187</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>96.78145571468774</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>158.0582008507155</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2490</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1813.10537169695</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2951</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1009.497550449676</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>2549</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2404.099712091073</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>358.4504289218351</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3125.171920460262</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>177</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>491.9800028827718</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>392.0151782610328</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3468</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6925.8710301071</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42.32649579799539</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.977711001701785</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L25" t="n">
+        <v>48.53347374227125</v>
+      </c>
+      <c r="M25" t="n">
+        <v>20</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2390899628412289</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R25" t="n">
+        <v>195.1327242181931</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3280707296786383</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.5710904135445516</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.244927858358153</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>88.62008551203877</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>142.1577976505069</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>864</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1713.218048311832</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1945</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>779.4692214750065</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1307</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2514.228337180741</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>237.7230129159198</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>3099.942053255744</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>124</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>374.5012774907004</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>72</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>302.2475649592067</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2403</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6471.904693032058</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F26" t="n">
+        <v>34.57422380744965</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.572348807400399</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L26" t="n">
+        <v>48.35098580643562</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1820538097705119</v>
+      </c>
+      <c r="P26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R26" t="n">
+        <v>183.508104791838</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.2983441514021674</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5219486967462087</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.006434283767998</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>81.21846537299248</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>127.9925827118661</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>433</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1619.751315389581</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1343</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>603.4144912042773</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2617.497133401124</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>158.305836219385</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>3075.165128642248</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>82</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>289.4768440591277</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>47</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>235.8916337604924</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1661</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6051.795568733906</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F27" t="n">
+        <v>28.28962739555584</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.203566594807793</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L27" t="n">
+        <v>48.20548961870326</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.1389581056057165</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R27" t="n">
+        <v>172.682028173495</v>
+      </c>
+      <c r="S27" t="n">
+        <v>20</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.2715689243598792</v>
+      </c>
+      <c r="V27" t="n">
+        <v>15</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.4774649932747906</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.8152597683872083</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>74.49998195011652</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>115.3598751700177</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1853</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1532.243136567326</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1135</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>468.3217550828515</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2713.917425383587</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>105.8493924107782</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>3050.831052531708</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>31</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>227.0153894026328</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>186.2534413654451</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/BaseDeDatos/Multiplicativo_values.xlsx
+++ b/BaseDeDatos/Multiplicativo_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +704,81 @@
           <t>Threeshold_Entregas Minion Mega</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>RV_ Tarjetas credito vigentes otros</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_ Tarjetas credito vigentes otros</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_ Tarjetas credito vigentes otros</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Numero de operaciones realizadas con tarjetas de crédito</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Numero de operaciones realizadas con tarjetas de crédito</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Numero de operaciones realizadas con tarjetas de crédito</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Tarjetas vigentes</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Tarjetas vigentes</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Tarjetas vigentes</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Tarjetas vigentes VISA</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Tarjetas vigentes VISA</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Tarjetas vigentes VISA</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>RV_Tarjetas vigentes MASTERCARD</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>FV+F_Tarjetas vigentes MASTERCARD</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Threeshold_Tarjetas vigentes MASTERCARD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -815,6 +890,31 @@
       <c r="BC2" t="n">
         <v>2</v>
       </c>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -926,6 +1026,31 @@
       <c r="BC3" t="n">
         <v>2</v>
       </c>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1037,6 +1162,31 @@
       <c r="BC4" t="n">
         <v>2</v>
       </c>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1152,6 +1302,31 @@
       <c r="BC5" t="n">
         <v>2</v>
       </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1267,6 +1442,31 @@
       <c r="BC6" t="n">
         <v>2</v>
       </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1390,6 +1590,31 @@
       <c r="BC7" t="n">
         <v>2</v>
       </c>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1517,6 +1742,31 @@
       <c r="BC8" t="n">
         <v>2</v>
       </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1644,6 +1894,31 @@
       <c r="BC9" t="n">
         <v>2</v>
       </c>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1771,6 +2046,31 @@
       <c r="BC10" t="n">
         <v>2</v>
       </c>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1906,6 +2206,31 @@
       <c r="BC11" t="n">
         <v>2</v>
       </c>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2049,6 +2374,31 @@
       <c r="BC12" t="n">
         <v>2</v>
       </c>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2192,6 +2542,31 @@
       <c r="BC13" t="n">
         <v>2</v>
       </c>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2335,6 +2710,31 @@
       <c r="BC14" t="n">
         <v>2</v>
       </c>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2482,6 +2882,31 @@
       <c r="BC15" t="n">
         <v>2</v>
       </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2633,6 +3058,31 @@
       <c r="BC16" t="n">
         <v>2</v>
       </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2784,6 +3234,31 @@
       <c r="BC17" t="n">
         <v>2</v>
       </c>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2939,6 +3414,31 @@
       <c r="BC18" t="n">
         <v>2</v>
       </c>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3098,6 +3598,31 @@
       <c r="BC19" t="n">
         <v>2</v>
       </c>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3265,6 +3790,31 @@
       <c r="BC20" t="n">
         <v>2</v>
       </c>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3432,6 +3982,31 @@
       <c r="BC21" t="n">
         <v>2</v>
       </c>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3598,6 +4173,31 @@
       </c>
       <c r="BC22" t="n">
         <v>2</v>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -3766,6 +4366,31 @@
       <c r="BC23" t="n">
         <v>2</v>
       </c>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3933,6 +4558,31 @@
       <c r="BC24" t="n">
         <v>2</v>
       </c>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4100,6 +4750,31 @@
       <c r="BC25" t="n">
         <v>2</v>
       </c>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4267,6 +4942,31 @@
       <c r="BC26" t="n">
         <v>2</v>
       </c>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -4433,6 +5133,31 @@
       </c>
       <c r="BC27" t="n">
         <v>2</v>
+      </c>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="n">
+        <v>54</v>
+      </c>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="n">
+        <v>54</v>
+      </c>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/BaseDeDatos/Multiplicativo_values.xlsx
+++ b/BaseDeDatos/Multiplicativo_values.xlsx
@@ -893,27 +893,27 @@
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1029,27 +1029,27 @@
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1165,27 +1165,27 @@
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
       <c r="BL4" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1305,27 +1305,27 @@
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1445,27 +1445,27 @@
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1593,27 +1593,27 @@
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1745,27 +1745,27 @@
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1897,27 +1897,27 @@
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -2049,27 +2049,27 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -2209,27 +2209,27 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -2377,27 +2377,27 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -2545,27 +2545,27 @@
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -2713,27 +2713,27 @@
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -2885,27 +2885,27 @@
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -3061,27 +3061,27 @@
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -3237,27 +3237,27 @@
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -3417,27 +3417,27 @@
       <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -3601,27 +3601,27 @@
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -3793,27 +3793,27 @@
       <c r="BD20" t="inlineStr"/>
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -3985,27 +3985,27 @@
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -4177,27 +4177,27 @@
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -4369,27 +4369,27 @@
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -4561,27 +4561,27 @@
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -4753,27 +4753,27 @@
       <c r="BD25" t="inlineStr"/>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr"/>
       <c r="BI25" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -4945,27 +4945,27 @@
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr"/>
       <c r="BI26" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -5137,27 +5137,27 @@
       <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
       <c r="BF27" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="n">
-        <v>54</v>
+        <v>5089</v>
       </c>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
